--- a/PESBiU2.0/results_graphs/A2C.xlsx
+++ b/PESBiU2.0/results_graphs/A2C.xlsx
@@ -5,20 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vutbr-my.sharepoint.com/personal/xkolac15_vutbr_cz/Documents/DOKTORSKE STUDIUM/Dizertace/Srovnani Algoritmu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_source\pesbiu2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4D80C4656A4B7AC02E74B4CB9965105BDEDD91" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30C31AA4-CDE1-43A1-8D9D-D36254B1133D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F20D58-DDDD-42D4-A95A-C7561ABC70CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="7572" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -126,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -134,6 +145,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -414,15 +429,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -452,7 +471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -478,13 +497,15 @@
         <v>8.9355569999999993</v>
       </c>
       <c r="I2" s="2">
-        <v>80.405322999999996</v>
+        <v>804.05322999999999</v>
       </c>
       <c r="J2" s="2">
-        <v>78.355096000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>783.55096000000003</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -510,13 +531,15 @@
         <v>9.136514</v>
       </c>
       <c r="I3" s="2">
-        <v>78.695615000000004</v>
+        <v>786.95614999999998</v>
       </c>
       <c r="J3" s="2">
-        <v>76.555909</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>765.55908999999997</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -542,13 +565,15 @@
         <v>8.7726959999999998</v>
       </c>
       <c r="I4" s="2">
-        <v>71.929208000000003</v>
+        <v>719.29208000000006</v>
       </c>
       <c r="J4" s="2">
-        <v>71.927843999999993</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>719.27843999999993</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,13 +599,15 @@
         <v>8.7014460000000007</v>
       </c>
       <c r="I5" s="2">
-        <v>74.889156</v>
+        <v>748.89156000000003</v>
       </c>
       <c r="J5" s="2">
-        <v>74.609009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>746.09009000000003</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -606,13 +633,15 @@
         <v>8.702299</v>
       </c>
       <c r="I6" s="2">
-        <v>79.974947999999998</v>
+        <v>799.74947999999995</v>
       </c>
       <c r="J6" s="2">
-        <v>78.268084000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>782.68083999999999</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -638,13 +667,15 @@
         <v>8.186731</v>
       </c>
       <c r="I7" s="2">
-        <v>65.740347</v>
+        <v>657.40346999999997</v>
       </c>
       <c r="J7" s="2">
-        <v>65.740347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>657.40346999999997</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -670,13 +701,15 @@
         <v>7.6024139999999996</v>
       </c>
       <c r="I8" s="2">
-        <v>74.302082999999996</v>
+        <v>743.02082999999993</v>
       </c>
       <c r="J8" s="2">
-        <v>71.211521000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>712.11521000000005</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -702,13 +735,15 @@
         <v>7.7702390000000001</v>
       </c>
       <c r="I9" s="2">
-        <v>118.505927</v>
+        <v>1185.05927</v>
       </c>
       <c r="J9" s="2">
-        <v>118.28453500000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1182.8453500000001</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -734,13 +769,15 @@
         <v>7.5059740000000001</v>
       </c>
       <c r="I10" s="2">
-        <v>121.23565600000001</v>
+        <v>1212.3565600000002</v>
       </c>
       <c r="J10" s="2">
-        <v>120.5466</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1205.4659999999999</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -766,13 +803,15 @@
         <v>7.6325380000000003</v>
       </c>
       <c r="I11" s="2">
-        <v>115.695365</v>
+        <v>1156.9536499999999</v>
       </c>
       <c r="J11" s="2">
-        <v>115.477358</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1154.77358</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -798,13 +837,15 @@
         <v>7.7215829999999999</v>
       </c>
       <c r="I12" s="2">
-        <v>115.404208</v>
+        <v>1154.0420799999999</v>
       </c>
       <c r="J12" s="2">
-        <v>115.283367</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1152.83367</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -830,13 +871,15 @@
         <v>7.3557670000000002</v>
       </c>
       <c r="I13" s="2">
-        <v>101.40723</v>
+        <v>1014.0723</v>
       </c>
       <c r="J13" s="2">
-        <v>101.380256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1013.8025600000001</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -862,13 +905,15 @@
         <v>7.1743540000000001</v>
       </c>
       <c r="I14" s="2">
-        <v>99.212768999999994</v>
+        <v>992.12768999999992</v>
       </c>
       <c r="J14" s="2">
-        <v>99.211020000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>992.11020000000008</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -894,13 +939,15 @@
         <v>7.0941789999999996</v>
       </c>
       <c r="I15" s="2">
-        <v>91.875590000000003</v>
+        <v>918.7559</v>
       </c>
       <c r="J15" s="2">
-        <v>91.833757000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>918.33757000000003</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -926,13 +973,15 @@
         <v>8.1723429999999997</v>
       </c>
       <c r="I16" s="2">
-        <v>138.153479</v>
+        <v>1381.5347900000002</v>
       </c>
       <c r="J16" s="2">
-        <v>120.57427</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1205.7427</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -958,13 +1007,15 @@
         <v>7.7843660000000003</v>
       </c>
       <c r="I17" s="2">
-        <v>124.846417</v>
+        <v>1248.46417</v>
       </c>
       <c r="J17" s="2">
-        <v>124.7585</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1247.585</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -990,13 +1041,15 @@
         <v>8.1811559999999997</v>
       </c>
       <c r="I18" s="2">
-        <v>122.887406</v>
+        <v>1228.8740600000001</v>
       </c>
       <c r="J18" s="2">
-        <v>117.321894</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1173.21894</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1022,13 +1075,15 @@
         <v>7.8244210000000001</v>
       </c>
       <c r="I19" s="2">
-        <v>116.428375</v>
+        <v>1164.2837500000001</v>
       </c>
       <c r="J19" s="2">
-        <v>116.371222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1163.7122200000001</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1054,13 +1109,15 @@
         <v>7.3745159999999998</v>
       </c>
       <c r="I20" s="2">
-        <v>114.173384</v>
+        <v>1141.7338399999999</v>
       </c>
       <c r="J20" s="2">
-        <v>114.070277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1140.7027700000001</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1086,13 +1143,15 @@
         <v>7.8056320000000001</v>
       </c>
       <c r="I21" s="2">
-        <v>111.819333</v>
+        <v>1118.1933300000001</v>
       </c>
       <c r="J21" s="2">
-        <v>110.56130899999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1105.6130899999998</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1118,11 +1177,17 @@
         <v>7.3759420000000002</v>
       </c>
       <c r="I22" s="2">
-        <v>116.01150800000001</v>
+        <v>1160.11508</v>
       </c>
       <c r="J22" s="2">
-        <v>112.366281</v>
-      </c>
+        <v>1123.66281</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
